--- a/bot/data/как должно выглядеть.xlsx
+++ b/bot/data/как должно выглядеть.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9561ccc237ea6f20/Desktop/bot py/hw_on_differential_equations_bot/bot/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9561ccc237ea6f20/Desktop/python/bot/hw_on_differential_equations_bot/bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DF75460589B3ACB72844747994AAE5BDEDD9A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93947720-14E1-4550-AD95-B52F1FCD0E01}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4DF75460589B3ACB72844747994AAE5BDEDD9A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0315349-8627-4171-AD5B-88337924FE7A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>дата, на которую была дз</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>в среднем, %</t>
+  </si>
+  <si>
+    <t>+  75</t>
+  </si>
+  <si>
+    <t>-  25</t>
+  </si>
+  <si>
+    <t>+  42</t>
+  </si>
+  <si>
+    <t>-  68</t>
   </si>
 </sst>
 </file>
@@ -96,11 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,18 +398,26 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3">
+        <v>45640</v>
+      </c>
+      <c r="D1" s="3">
+        <v>45641</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -501,21 +523,19 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f>(COUNTIF(B3:F6,"+")/COUNTA(B3:F6))*100</f>
-        <v>55.000000000000007</v>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <f>(COUNTIF(B3:F6,"-")/COUNTA(B3:F6))*100</f>
-        <v>45</v>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
